--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>31.66883366666667</v>
+        <v>0.3851733333333334</v>
       </c>
       <c r="H2">
-        <v>95.006501</v>
+        <v>1.15552</v>
       </c>
       <c r="I2">
-        <v>0.9615169947075755</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="J2">
-        <v>0.9615169947075756</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1660766666666667</v>
+        <v>0.06761166666666667</v>
       </c>
       <c r="N2">
-        <v>0.49823</v>
+        <v>0.202835</v>
       </c>
       <c r="O2">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="P2">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="Q2">
-        <v>5.259454332581112</v>
+        <v>0.02604221102222222</v>
       </c>
       <c r="R2">
-        <v>47.33508899323</v>
+        <v>0.2343798992</v>
       </c>
       <c r="S2">
-        <v>0.09988755372453255</v>
+        <v>0.01050384066196992</v>
       </c>
       <c r="T2">
-        <v>0.09988755372453255</v>
+        <v>0.01050384066196992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>31.66883366666667</v>
+        <v>0.3851733333333334</v>
       </c>
       <c r="H3">
-        <v>95.006501</v>
+        <v>1.15552</v>
       </c>
       <c r="I3">
-        <v>0.9615169947075755</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="J3">
-        <v>0.9615169947075756</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.634694</v>
       </c>
       <c r="O3">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="P3">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="Q3">
-        <v>38.36883990507711</v>
+        <v>0.4666624012088889</v>
       </c>
       <c r="R3">
-        <v>345.319559145694</v>
+        <v>4.199961610880001</v>
       </c>
       <c r="S3">
-        <v>0.7287009858845033</v>
+        <v>0.1882231697242493</v>
       </c>
       <c r="T3">
-        <v>0.7287009858845034</v>
+        <v>0.1882231697242493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>31.66883366666667</v>
+        <v>0.3851733333333334</v>
       </c>
       <c r="H4">
-        <v>95.006501</v>
+        <v>1.15552</v>
       </c>
       <c r="I4">
-        <v>0.9615169947075755</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="J4">
-        <v>0.9615169947075756</v>
+        <v>0.2330623765375699</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.6630349999999999</v>
       </c>
       <c r="O4">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="P4">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="Q4">
-        <v>6.999181710059443</v>
+        <v>0.08512780035555555</v>
       </c>
       <c r="R4">
-        <v>62.99263539053499</v>
+        <v>0.7661502031999999</v>
       </c>
       <c r="S4">
-        <v>0.1329284550985397</v>
+        <v>0.03433536615135073</v>
       </c>
       <c r="T4">
-        <v>0.1329284550985397</v>
+        <v>0.03433536615135074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.097839</v>
       </c>
       <c r="I5">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="J5">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1660766666666667</v>
+        <v>0.06761166666666667</v>
       </c>
       <c r="N5">
-        <v>0.49823</v>
+        <v>0.202835</v>
       </c>
       <c r="O5">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="P5">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="Q5">
-        <v>0.1714929249966667</v>
+        <v>0.06981668595166667</v>
       </c>
       <c r="R5">
-        <v>1.54343632497</v>
+        <v>0.628350173565</v>
       </c>
       <c r="S5">
-        <v>0.003256993535026116</v>
+        <v>0.02815979580832546</v>
       </c>
       <c r="T5">
-        <v>0.003256993535026116</v>
+        <v>0.02815979580832546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.097839</v>
       </c>
       <c r="I6">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="J6">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.634694</v>
       </c>
       <c r="O6">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="P6">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="Q6">
         <v>1.251077425140667</v>
@@ -818,10 +818,10 @@
         <v>11.259696826266</v>
       </c>
       <c r="S6">
-        <v>0.02376046175420631</v>
+        <v>0.5046083805346498</v>
       </c>
       <c r="T6">
-        <v>0.02376046175420631</v>
+        <v>0.5046083805346498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.097839</v>
       </c>
       <c r="I7">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="J7">
-        <v>0.03135180028751844</v>
+        <v>0.6248180208657306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.6630349999999999</v>
       </c>
       <c r="O7">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="P7">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="Q7">
         <v>0.2282195201516666</v>
@@ -880,10 +880,10 @@
         <v>2.053975681365</v>
       </c>
       <c r="S7">
-        <v>0.004334344998286012</v>
+        <v>0.09204984452275529</v>
       </c>
       <c r="T7">
-        <v>0.004334344998286012</v>
+        <v>0.09204984452275529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2348756666666666</v>
+        <v>0.2348756666666667</v>
       </c>
       <c r="H8">
-        <v>0.7046269999999999</v>
+        <v>0.704627</v>
       </c>
       <c r="I8">
-        <v>0.007131205004906081</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="J8">
-        <v>0.007131205004906082</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1660766666666667</v>
+        <v>0.06761166666666667</v>
       </c>
       <c r="N8">
-        <v>0.49823</v>
+        <v>0.202835</v>
       </c>
       <c r="O8">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="P8">
-        <v>0.1038853751668853</v>
+        <v>0.04506879582203475</v>
       </c>
       <c r="Q8">
-        <v>0.03900736780111111</v>
+        <v>0.01588033528277778</v>
       </c>
       <c r="R8">
-        <v>0.35106631021</v>
+        <v>0.142923017545</v>
       </c>
       <c r="S8">
-        <v>0.0007408279073266383</v>
+        <v>0.006405159351739372</v>
       </c>
       <c r="T8">
-        <v>0.0007408279073266385</v>
+        <v>0.006405159351739371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2348756666666666</v>
+        <v>0.2348756666666667</v>
       </c>
       <c r="H9">
-        <v>0.7046269999999999</v>
+        <v>0.704627</v>
       </c>
       <c r="I9">
-        <v>0.007131205004906081</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="J9">
-        <v>0.007131205004906082</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.634694</v>
       </c>
       <c r="O9">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="P9">
-        <v>0.7578659450591634</v>
+        <v>0.8076085575052372</v>
       </c>
       <c r="Q9">
         <v>0.2845670587931111</v>
@@ -1004,10 +1004,10 @@
         <v>2.561103529138</v>
       </c>
       <c r="S9">
-        <v>0.005404497420453782</v>
+        <v>0.1147770072463381</v>
       </c>
       <c r="T9">
-        <v>0.005404497420453784</v>
+        <v>0.1147770072463381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2348756666666666</v>
+        <v>0.2348756666666667</v>
       </c>
       <c r="H10">
-        <v>0.7046269999999999</v>
+        <v>0.704627</v>
       </c>
       <c r="I10">
-        <v>0.007131205004906081</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="J10">
-        <v>0.007131205004906082</v>
+        <v>0.1421196025966995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>0.6630349999999999</v>
       </c>
       <c r="O10">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="P10">
-        <v>0.1382486797739514</v>
+        <v>0.1473226466727281</v>
       </c>
       <c r="Q10">
-        <v>0.05191026254944443</v>
+        <v>0.05191026254944444</v>
       </c>
       <c r="R10">
         <v>0.4671923629449999</v>
       </c>
       <c r="S10">
-        <v>0.0009858796771256601</v>
+        <v>0.0209374359986221</v>
       </c>
       <c r="T10">
-        <v>0.0009858796771256603</v>
+        <v>0.0209374359986221</v>
       </c>
     </row>
   </sheetData>
